--- a/output/fit_clients/fit_round_177.xlsx
+++ b/output/fit_clients/fit_round_177.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1654585255.670988</v>
+        <v>2504686173.169148</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09096424699365589</v>
+        <v>0.1132831983772238</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03598685648165924</v>
+        <v>0.02794148784997036</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>827292577.0063696</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2337219861.479498</v>
+        <v>1919556015.847589</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1523894656815649</v>
+        <v>0.1389182815015236</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03995452900369642</v>
+        <v>0.05055480797105674</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1168610022.996285</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5126492723.935119</v>
+        <v>4606180421.830115</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1664809849781184</v>
+        <v>0.1214095144136524</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03186254630395289</v>
+        <v>0.03325476750501374</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>64</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2563246455.926455</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2842715898.929723</v>
+        <v>2747705113.961012</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1017238104045816</v>
+        <v>0.07327873802116089</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03186016691159601</v>
+        <v>0.03247519946489075</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1421358029.663931</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2558607212.436483</v>
+        <v>2588690875.499027</v>
       </c>
       <c r="F6" t="n">
-        <v>0.111354247796071</v>
+        <v>0.08986029509594293</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03434047530561781</v>
+        <v>0.0370863497392348</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>26</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1279303575.320194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2205989687.269097</v>
+        <v>2250332644.618632</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09582316527171064</v>
+        <v>0.0956019662231556</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04097768247154954</v>
+        <v>0.03550014255416731</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>55</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1102994884.904904</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2788020361.713515</v>
+        <v>2836933712.131207</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1455174696394967</v>
+        <v>0.1705653988679099</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02759463044689809</v>
+        <v>0.02161554486892496</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>56</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1394010216.674968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2214709146.598674</v>
+        <v>1772490605.887717</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1586137976471848</v>
+        <v>0.157345670084029</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03543359638827917</v>
+        <v>0.03565383747940493</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1107354570.094216</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5798051997.728723</v>
+        <v>4649912861.423784</v>
       </c>
       <c r="F10" t="n">
-        <v>0.139646011895813</v>
+        <v>0.1635962412616404</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04313827966216632</v>
+        <v>0.04167163744733873</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>75</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2899026159.969297</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2839323234.679447</v>
+        <v>3509682360.120254</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1407076086765534</v>
+        <v>0.1602797589799652</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04537551850800062</v>
+        <v>0.04393045172944294</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>73</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1419661549.033307</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2492152459.905889</v>
+        <v>2969820639.905331</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1485720186946183</v>
+        <v>0.1494464380667511</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04000609138439309</v>
+        <v>0.04178601425807479</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>63</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1246076201.434009</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5272288866.302134</v>
+        <v>3526390014.992851</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09862885699081959</v>
+        <v>0.07708007386282993</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0243676481214645</v>
+        <v>0.02596435378684054</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>59</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2636144423.43016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2679409189.989819</v>
+        <v>3458208912.934712</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1353553461645375</v>
+        <v>0.1640754134583869</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03787774935502968</v>
+        <v>0.0370158880261989</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>57</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1339704652.624858</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1682466953.68084</v>
+        <v>1288624892.091887</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1028073264686881</v>
+        <v>0.06722831310126376</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03880508255876791</v>
+        <v>0.03332317615324219</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>841233603.6807294</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2456278631.476727</v>
+        <v>2788036316.60104</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09845200577477556</v>
+        <v>0.09674389550931105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03477286526211793</v>
+        <v>0.04930157890185778</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1228139350.435108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3276626922.354128</v>
+        <v>4653356769.764095</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1719035178960976</v>
+        <v>0.1248894370680888</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04386480298789722</v>
+        <v>0.04208888616080854</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>52</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1638313531.524156</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2479613531.930096</v>
+        <v>3098131179.286083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1368558036266949</v>
+        <v>0.1493761618011138</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02734138623265851</v>
+        <v>0.02979865085810246</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>58</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1239806833.831988</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1030113654.716628</v>
+        <v>925099842.4229892</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1887824751567553</v>
+        <v>0.1905593946817609</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02678978962743334</v>
+        <v>0.02514134550919331</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>515056863.8861598</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2250416643.61742</v>
+        <v>1928950055.373034</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1065820499693075</v>
+        <v>0.1339160311583628</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02246050443043511</v>
+        <v>0.03075115508252663</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>29</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1125208321.461242</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1906561775.929136</v>
+        <v>2736264421.867407</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09910867586033095</v>
+        <v>0.06900280331748065</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03397729846406602</v>
+        <v>0.03916087246208728</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>953280932.8288627</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2914312092.354164</v>
+        <v>2605740722.498405</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08975236275117646</v>
+        <v>0.1349841521131602</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05195157990562964</v>
+        <v>0.05459183795808699</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>49</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1457156112.814427</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1094919474.140587</v>
+        <v>1019277285.278665</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1674597278319534</v>
+        <v>0.1344636206809084</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0386364240063834</v>
+        <v>0.04301764749734596</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>547459791.2366992</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3563719652.174665</v>
+        <v>4068967830.917222</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1232388110413841</v>
+        <v>0.1418977133366038</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02973331732088734</v>
+        <v>0.02477832394432586</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>52</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1781859823.386977</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1093587470.453815</v>
+        <v>899723811.9610653</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07608114803520555</v>
+        <v>0.1068973247501049</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02810924109059989</v>
+        <v>0.02949588914178591</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>546793777.6508256</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1435757873.983073</v>
+        <v>1217665532.368245</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07582310844656621</v>
+        <v>0.08262329569635395</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03225306079340261</v>
+        <v>0.03902617908199643</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>717879015.6906838</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3941179175.160556</v>
+        <v>2956650056.462077</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1265655487113183</v>
+        <v>0.1397007646310519</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02144522823417733</v>
+        <v>0.02646939618304065</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>40</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1970589600.626343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2504570832.309273</v>
+        <v>2395684833.663908</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1222649855628012</v>
+        <v>0.1435027189180703</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04594199727378652</v>
+        <v>0.04131857659904623</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>57</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1252285384.340532</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4225512573.971382</v>
+        <v>5247858195.093109</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1135308023567134</v>
+        <v>0.09916515701666484</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03202108129437531</v>
+        <v>0.03727137296293599</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>79</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2112756288.165057</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2376330284.830289</v>
+        <v>1747115239.471884</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1299536957801602</v>
+        <v>0.09232924871064642</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02490300949681308</v>
+        <v>0.03600409573121916</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1188165222.73446</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1110658283.970318</v>
+        <v>1495431945.912829</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1079692139491746</v>
+        <v>0.08359990081665059</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04142037011981688</v>
+        <v>0.04245697581700628</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>555329114.4559335</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1470517276.28333</v>
+        <v>1396346775.037531</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07856611838405184</v>
+        <v>0.07877924434259129</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02594530978580502</v>
+        <v>0.02957969943249598</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>735258700.3748474</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1977203301.779423</v>
+        <v>2258162329.413219</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1477836785520964</v>
+        <v>0.1330023742687376</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05154912462961062</v>
+        <v>0.04643837577159501</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>54</v>
-      </c>
-      <c r="J33" t="n">
-        <v>988601733.596104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1040223230.599707</v>
+        <v>1009289395.052589</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1082363519893622</v>
+        <v>0.1168970877030088</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01768268813998406</v>
+        <v>0.01908772457060387</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>520111646.5375413</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>993900894.7573647</v>
+        <v>1155614964.609257</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08254132746416583</v>
+        <v>0.1027245758299215</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04068191331832136</v>
+        <v>0.02891831887147542</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>496950467.2686281</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3172852418.462174</v>
+        <v>2484644507.180139</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1792605830465904</v>
+        <v>0.1227008852993499</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02704854720850746</v>
+        <v>0.02348518129964365</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>45</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1586426177.27822</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2947791782.327424</v>
+        <v>2640665629.980303</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1054647378252487</v>
+        <v>0.07707170185404304</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03887141823093693</v>
+        <v>0.04133924314511755</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>49</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1473896048.792176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2117606767.967044</v>
+        <v>1846459060.05421</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1156567448778039</v>
+        <v>0.1038931783525869</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03895978290183347</v>
+        <v>0.03286585661189294</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1058803345.970161</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1698195573.038535</v>
+        <v>2152130742.793848</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1369096147042785</v>
+        <v>0.1605330688071351</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03064922214345692</v>
+        <v>0.03007961715182246</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>849097826.8625315</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1582992092.902183</v>
+        <v>1700088029.427661</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1169848108350844</v>
+        <v>0.1296924781632985</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04494947285987726</v>
+        <v>0.05217470752327913</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>791495991.8273567</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2120823541.802136</v>
+        <v>1946677782.603147</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1633261321949809</v>
+        <v>0.1422133652907091</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04600548845689887</v>
+        <v>0.03498391516634394</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1060411833.303547</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2704145279.167189</v>
+        <v>4082962396.832711</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1219148587530562</v>
+        <v>0.09591795197396888</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03904239382763623</v>
+        <v>0.04094996619857958</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1352072579.61406</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2722542585.745456</v>
+        <v>1954475004.370645</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1982312371366037</v>
+        <v>0.1862270062311422</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02419401096617959</v>
+        <v>0.02220425630434344</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>61</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1361271319.129072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2152114903.474089</v>
+        <v>1590058248.158388</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0732830327178655</v>
+        <v>0.07833818529639028</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03440655927442051</v>
+        <v>0.02538881862031493</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1076057588.401978</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1998574771.357141</v>
+        <v>1765541752.720613</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1776849949764744</v>
+        <v>0.1769898208931076</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03668472589346643</v>
+        <v>0.03828859205468389</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>999287376.3619362</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5289724711.791912</v>
+        <v>3455615383.245334</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1766718933629692</v>
+        <v>0.1288042471731511</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04452749503823814</v>
+        <v>0.04008841761759024</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>63</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2644862399.234125</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3698057122.857069</v>
+        <v>4665695549.452244</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1867563695730357</v>
+        <v>0.1326399598453523</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05570114767340691</v>
+        <v>0.05689305062651607</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>47</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1849028543.433987</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3037337359.464334</v>
+        <v>4054831220.429109</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08691024680368739</v>
+        <v>0.09153193591668846</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03093031084109137</v>
+        <v>0.02822178081138185</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>59</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1518668770.006448</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1937040446.196098</v>
+        <v>1401068749.934932</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1655887430313931</v>
+        <v>0.1223553206587364</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03401699638069717</v>
+        <v>0.04319954595134556</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>968520187.1543523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3921568624.437281</v>
+        <v>3119419480.487372</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1384369387741612</v>
+        <v>0.1627820982428736</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03438991415350302</v>
+        <v>0.03878761543489175</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>60</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1960784306.449533</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1462060421.229581</v>
+        <v>1469212410.592123</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1689427289967334</v>
+        <v>0.1346039233136157</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05448841642461843</v>
+        <v>0.03453321741912109</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>731030219.6759278</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4542687801.489472</v>
+        <v>4689023833.69418</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1231002288965521</v>
+        <v>0.08444766486745982</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0450344587389297</v>
+        <v>0.0609949977536622</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>73</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2271343925.251416</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3446498593.419008</v>
+        <v>3167482916.207488</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1992283020899827</v>
+        <v>0.1383484337942709</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02394411822145304</v>
+        <v>0.02380180558469472</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>51</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1723249298.261743</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3909245426.151791</v>
+        <v>2996451286.59832</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1294289182065303</v>
+        <v>0.1044449122967284</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03888925550875433</v>
+        <v>0.05261762185155484</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>59</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1954622769.993486</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4134710334.28967</v>
+        <v>4808003291.1765</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1793217862035655</v>
+        <v>0.2083388462002268</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02312127666667716</v>
+        <v>0.02367673703734941</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>47</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2067355147.993628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1622497966.290309</v>
+        <v>1780904173.301771</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1457619223531484</v>
+        <v>0.1012797462457087</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03566737517201445</v>
+        <v>0.04306985297522795</v>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>811249007.1990023</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3028502457.965281</v>
+        <v>2836844152.470039</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1450096309241966</v>
+        <v>0.1788931103334775</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02091522115559128</v>
+        <v>0.0230836602836809</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>57</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1514251235.746079</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1813937930.102174</v>
+        <v>1877379922.546896</v>
       </c>
       <c r="F58" t="n">
-        <v>0.179552451991839</v>
+        <v>0.1305814336520106</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0256295527524265</v>
+        <v>0.03219568840998588</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>906968967.5143181</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4192703829.566253</v>
+        <v>4119790579.20338</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1258062553113917</v>
+        <v>0.1145064193624689</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03068770956196493</v>
+        <v>0.04337429735116393</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>49</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2096351881.41374</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2733563329.484235</v>
+        <v>3342107918.194183</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1291044639047121</v>
+        <v>0.1936277024618433</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02810333455009963</v>
+        <v>0.02196731484457815</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>58</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1366781707.117371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2420366985.142127</v>
+        <v>3403038424.70682</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1168419939141381</v>
+        <v>0.1517978979265213</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02874452763475309</v>
+        <v>0.02819576601219946</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>61</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1210183527.671782</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1330467178.267425</v>
+        <v>1942772863.295734</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1501122585640957</v>
+        <v>0.1297043699635578</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04438561150383998</v>
+        <v>0.04878302673423117</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>665233546.7219182</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4176459063.064487</v>
+        <v>5580465003.577709</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1071701074079504</v>
+        <v>0.09961190475295011</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03058102316881865</v>
+        <v>0.04565431835718101</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>50</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2088229586.028731</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4770309693.404419</v>
+        <v>3670032124.513918</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1392897106165557</v>
+        <v>0.1218148740576447</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02488119339438348</v>
+        <v>0.02329559447567486</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>55</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2385154936.717097</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4002986176.101446</v>
+        <v>4875201245.395539</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1256895722702145</v>
+        <v>0.1077447144998728</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02204568573743084</v>
+        <v>0.02178058775489427</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>63</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2001493106.430862</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5238368337.58824</v>
+        <v>3575390115.677547</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1421196509947086</v>
+        <v>0.1536742441498734</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04910769891114082</v>
+        <v>0.03109934796004625</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>51</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2619184208.732973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2923842501.952697</v>
+        <v>3305994461.602443</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0898619112957097</v>
+        <v>0.08331017431555642</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04469212689220298</v>
+        <v>0.03175744210750941</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>58</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1461921275.684581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5756974205.654843</v>
+        <v>4104301194.5269</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09878135938766124</v>
+        <v>0.1460117251146738</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03918955697135431</v>
+        <v>0.04154382104843436</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>57</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2878487205.070115</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1939182723.56836</v>
+        <v>2128669150.258812</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1770158209016779</v>
+        <v>0.175805108355151</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05860523388814638</v>
+        <v>0.04736749489312421</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>969591358.8257583</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3195406754.627207</v>
+        <v>2365631557.294931</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1032022177971262</v>
+        <v>0.06877815739246644</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03888360072969321</v>
+        <v>0.0447055269966395</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>51</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1597703367.058334</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4728487250.630288</v>
+        <v>5025752498.90098</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1211112874960661</v>
+        <v>0.1780376974579508</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0288945395712411</v>
+        <v>0.02195982412828976</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>64</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2364243710.710489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2267321613.781145</v>
+        <v>1622029580.319345</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1037623390069501</v>
+        <v>0.07168536964880498</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04740526979941409</v>
+        <v>0.03405023996926588</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1133660710.112909</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3255463193.499021</v>
+        <v>2316674716.220937</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0703895823761749</v>
+        <v>0.07510965101178625</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04060576580707907</v>
+        <v>0.05113523154758053</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>67</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1627731569.308834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4024880858.643939</v>
+        <v>3401049602.130258</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1534554591730161</v>
+        <v>0.1656211729132151</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02692834402711734</v>
+        <v>0.02819698178211838</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>60</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2012440406.058858</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2362488393.472375</v>
+        <v>2421253831.657255</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1508566206874704</v>
+        <v>0.1054503603999048</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03216924836792214</v>
+        <v>0.02806403133629543</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1181244126.861515</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4730372753.561356</v>
+        <v>3256589373.447527</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08782698977363095</v>
+        <v>0.1141748962013852</v>
       </c>
       <c r="G76" t="n">
-        <v>0.029846883015261</v>
+        <v>0.03371813125533681</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>42</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2365186392.120779</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2024270268.228526</v>
+        <v>1839669807.055204</v>
       </c>
       <c r="F77" t="n">
-        <v>0.131953928634359</v>
+        <v>0.1668280529046213</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02849092877808404</v>
+        <v>0.02780931438265856</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1012135199.158678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4206976021.295602</v>
+        <v>2921851716.206772</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1183403987401723</v>
+        <v>0.1015295023029222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05563267630626497</v>
+        <v>0.04446858511798717</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>61</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2103487961.556962</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1473690764.942363</v>
+        <v>1846866883.012678</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1086140644233988</v>
+        <v>0.1662969790622256</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03881281267738914</v>
+        <v>0.02499403424063451</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>736845412.0464677</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4739463333.004394</v>
+        <v>3654688964.222321</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07670077181757709</v>
+        <v>0.09343929603935666</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02632803623597816</v>
+        <v>0.03856834107534075</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>37</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2369731702.721704</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3956177886.560718</v>
+        <v>4828155028.635654</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1191826354141983</v>
+        <v>0.1102973821255709</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02667918157148033</v>
+        <v>0.02529150319060447</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1978088904.852256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4373541810.847821</v>
+        <v>4258621733.549374</v>
       </c>
       <c r="F82" t="n">
-        <v>0.154104410940517</v>
+        <v>0.1359325879530953</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02074090305181465</v>
+        <v>0.01932929076637011</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2186770924.32323</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2078378245.493038</v>
+        <v>2098800257.947222</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1361082462659772</v>
+        <v>0.1356203531164286</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03619806673449312</v>
+        <v>0.0309715685723855</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1039189117.785563</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2011039077.352672</v>
+        <v>1873508034.678989</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1053731371975852</v>
+        <v>0.09153110265702247</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04983805421027471</v>
+        <v>0.03345778756566866</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1005519542.077719</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2944316464.174731</v>
+        <v>3071083165.986291</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1472041790794028</v>
+        <v>0.1324677467271856</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04345376350532461</v>
+        <v>0.05385879160412873</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>66</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1472158286.057199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2496414884.978213</v>
+        <v>1972891696.844096</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1206835459261249</v>
+        <v>0.1113477801717634</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02094525004982406</v>
+        <v>0.0240173690852656</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>25</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1248207539.129425</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1222910715.663787</v>
+        <v>1479235986.692685</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1212057710575943</v>
+        <v>0.1319501651608168</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03498040389119535</v>
+        <v>0.04103241397335854</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>611455419.2728555</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3026630236.388848</v>
+        <v>3546803634.89852</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1218286750828536</v>
+        <v>0.173600552292149</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03568065326248065</v>
+        <v>0.02654050714523193</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>70</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1513315151.240584</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2851429692.321525</v>
+        <v>3063050218.865086</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1525298011593741</v>
+        <v>0.107933772724314</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03008277105747705</v>
+        <v>0.03269423274093888</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>60</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1425714895.134194</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1567120234.419978</v>
+        <v>2149236495.72465</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1068658859299786</v>
+        <v>0.1240574500313206</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04824626051833929</v>
+        <v>0.03818234775593192</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>783560108.1818469</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1445085062.006858</v>
+        <v>1491445554.841897</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1962574896561815</v>
+        <v>0.1471133159508325</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05231362237885173</v>
+        <v>0.0419062908032564</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>722542577.2182473</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1880531087.114858</v>
+        <v>2118051319.353075</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1066875372365542</v>
+        <v>0.06971366175145786</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03264705390599784</v>
+        <v>0.04620114938409431</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>43</v>
-      </c>
-      <c r="J92" t="n">
-        <v>940265480.6914613</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4928805003.221934</v>
+        <v>3877461872.311528</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09571920164487013</v>
+        <v>0.1027203731814393</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04389789525441369</v>
+        <v>0.04957740633053304</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>55</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2464402442.161996</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1748576220.433453</v>
+        <v>2108799303.314115</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1147093846594079</v>
+        <v>0.1036656526241038</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02967133751914157</v>
+        <v>0.0398099409579388</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>874288075.78506</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2983576318.808729</v>
+        <v>2931399449.91117</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1283442830180892</v>
+        <v>0.09464103749718192</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0488890115504817</v>
+        <v>0.03373169744961434</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>43</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1491788160.290533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2377828432.112855</v>
+        <v>2361453143.512198</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1163003921193192</v>
+        <v>0.1014788726979822</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03496566243606027</v>
+        <v>0.03088205501745309</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1188914162.674601</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3770795068.891707</v>
+        <v>4947151800.84696</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1149880900079428</v>
+        <v>0.1115139319178341</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02048867585352001</v>
+        <v>0.02728443048140068</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>59</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1885397572.359589</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2570160150.174067</v>
+        <v>3087782048.098192</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1011925825372953</v>
+        <v>0.1197414490099169</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02848785093259687</v>
+        <v>0.01992670804781594</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>47</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1285080030.607863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3188820069.861237</v>
+        <v>3364223785.908591</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1231394260710562</v>
+        <v>0.09738998857538592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03331349995594542</v>
+        <v>0.02578299145104036</v>
       </c>
       <c r="H99" t="b">
         <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1594410034.516421</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3337354134.148721</v>
+        <v>3688300806.6272</v>
       </c>
       <c r="F100" t="n">
-        <v>0.131254833090371</v>
+        <v>0.166164668924377</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02757626705439474</v>
+        <v>0.02474272864026278</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>54</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1668677084.831485</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2906896853.441918</v>
+        <v>3014098154.890308</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2099592188917623</v>
+        <v>0.2180436194980933</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04544860532416937</v>
+        <v>0.04049056290714162</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>72</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1453448503.486021</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_177.xlsx
+++ b/output/fit_clients/fit_round_177.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2504686173.169148</v>
+        <v>2119804928.953453</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1132831983772238</v>
+        <v>0.100677776043893</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02794148784997036</v>
+        <v>0.03852066591109653</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1919556015.847589</v>
+        <v>1612177319.145276</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1389182815015236</v>
+        <v>0.1646686528761019</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05055480797105674</v>
+        <v>0.03275999060106453</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4606180421.830115</v>
+        <v>4562103689.914237</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1214095144136524</v>
+        <v>0.1662579328388255</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03325476750501374</v>
+        <v>0.03749475173304048</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2747705113.961012</v>
+        <v>3914964318.288614</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07327873802116089</v>
+        <v>0.09424535323756324</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03247519946489075</v>
+        <v>0.03527410814191199</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2588690875.499027</v>
+        <v>1854631171.75829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08986029509594293</v>
+        <v>0.1122587374121787</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0370863497392348</v>
+        <v>0.05445715160099635</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2250332644.618632</v>
+        <v>2925154714.686162</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0956019662231556</v>
+        <v>0.08000561249567806</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03550014255416731</v>
+        <v>0.04835807582752564</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2836933712.131207</v>
+        <v>2588751367.403534</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1705653988679099</v>
+        <v>0.15061881707915</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02161554486892496</v>
+        <v>0.03088309275019482</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1772490605.887717</v>
+        <v>1725079368.785602</v>
       </c>
       <c r="F9" t="n">
-        <v>0.157345670084029</v>
+        <v>0.1366232317987707</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03565383747940493</v>
+        <v>0.02671765944251834</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4649912861.423784</v>
+        <v>5922765933.633795</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1635962412616404</v>
+        <v>0.1995448276598266</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04167163744733873</v>
+        <v>0.04981740158582442</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3509682360.120254</v>
+        <v>3716925084.501027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1602797589799652</v>
+        <v>0.1184802675553935</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04393045172944294</v>
+        <v>0.04764889252068779</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2969820639.905331</v>
+        <v>3302552946.746809</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1494464380667511</v>
+        <v>0.1854674151931508</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04178601425807479</v>
+        <v>0.04312932478696567</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3526390014.992851</v>
+        <v>4399540809.492927</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07708007386282993</v>
+        <v>0.08080038218435222</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02596435378684054</v>
+        <v>0.03040062047188751</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3458208912.934712</v>
+        <v>2982158134.189905</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1640754134583869</v>
+        <v>0.1852462788995016</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0370158880261989</v>
+        <v>0.03013027020404981</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1288624892.091887</v>
+        <v>1381392097.070652</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06722831310126376</v>
+        <v>0.09287821773510312</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03332317615324219</v>
+        <v>0.03467578614786628</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,16 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2788036316.60104</v>
+        <v>2113386293.265285</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09674389550931105</v>
+        <v>0.08678183468473105</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04930157890185778</v>
+        <v>0.04125768446641596</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4653356769.764095</v>
+        <v>3291272641.272324</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1248894370680888</v>
+        <v>0.1744295721399097</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04208888616080854</v>
+        <v>0.04965053950175764</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3098131179.286083</v>
+        <v>3595015835.272881</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1493761618011138</v>
+        <v>0.1727721184152712</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02979865085810246</v>
+        <v>0.0255023623417047</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>925099842.4229892</v>
+        <v>884839691.7907767</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1905593946817609</v>
+        <v>0.1698124977965518</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02514134550919331</v>
+        <v>0.02427573405500106</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1928950055.373034</v>
+        <v>1911896662.585498</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1339160311583628</v>
+        <v>0.1579530410455716</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03075115508252663</v>
+        <v>0.02054628606723562</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2736264421.867407</v>
+        <v>1945867088.836256</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06900280331748065</v>
+        <v>0.09468999208024637</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03916087246208728</v>
+        <v>0.04028799834271991</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2605740722.498405</v>
+        <v>2972249085.793711</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1349841521131602</v>
+        <v>0.1032517733415163</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05459183795808699</v>
+        <v>0.03747124076333828</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1019277285.278665</v>
+        <v>1067007809.689005</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1344636206809084</v>
+        <v>0.1361108094530183</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04301764749734596</v>
+        <v>0.05316736558554287</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4068967830.917222</v>
+        <v>3269633051.654851</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1418977133366038</v>
+        <v>0.09848462004311564</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02477832394432586</v>
+        <v>0.02320723410060928</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>899723811.9610653</v>
+        <v>907641734.9095945</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1068973247501049</v>
+        <v>0.08265288609459438</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02949588914178591</v>
+        <v>0.02337946974897866</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1217665532.368245</v>
+        <v>1432513053.297156</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08262329569635395</v>
+        <v>0.08729552420568987</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03902617908199643</v>
+        <v>0.03399830010954585</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2956650056.462077</v>
+        <v>4036800940.849319</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1397007646310519</v>
+        <v>0.1570898990305795</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02646939618304065</v>
+        <v>0.01876911251193602</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2395684833.663908</v>
+        <v>2533763095.294456</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1435027189180703</v>
+        <v>0.09930468581871213</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04131857659904623</v>
+        <v>0.04839395442030909</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5247858195.093109</v>
+        <v>4940360097.503073</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09916515701666484</v>
+        <v>0.1423433134655472</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03727137296293599</v>
+        <v>0.04184143222811122</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1747115239.471884</v>
+        <v>1756173580.543149</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09232924871064642</v>
+        <v>0.1044036193163559</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03600409573121916</v>
+        <v>0.0323913282963024</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1495431945.912829</v>
+        <v>1151432088.220897</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08359990081665059</v>
+        <v>0.09656690301956986</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04245697581700628</v>
+        <v>0.04611068977465454</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1396346775.037531</v>
+        <v>1603415247.554028</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07877924434259129</v>
+        <v>0.1138224188652197</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02957969943249598</v>
+        <v>0.02348783569674962</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2258162329.413219</v>
+        <v>2606218124.661713</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1330023742687376</v>
+        <v>0.1527568162842878</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04643837577159501</v>
+        <v>0.05583558197430014</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1009289395.052589</v>
+        <v>1169634348.650796</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1168970877030088</v>
+        <v>0.104024845350799</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01908772457060387</v>
+        <v>0.02551137669526637</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1155614964.609257</v>
+        <v>962774349.4888545</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1027245758299215</v>
+        <v>0.08199056242337008</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02891831887147542</v>
+        <v>0.03818870574724628</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2484644507.180139</v>
+        <v>2247150280.255175</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1227008852993499</v>
+        <v>0.1353936722367006</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02348518129964365</v>
+        <v>0.02282884274444728</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2640665629.980303</v>
+        <v>2296577200.519551</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07707170185404304</v>
+        <v>0.09854413620362415</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04133924314511755</v>
+        <v>0.02856682290624933</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1846459060.05421</v>
+        <v>1605757475.211186</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1038931783525869</v>
+        <v>0.0794632196417786</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03286585661189294</v>
+        <v>0.03913183848097681</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2152130742.793848</v>
+        <v>2128801235.073603</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1605330688071351</v>
+        <v>0.1894983985803974</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03007961715182246</v>
+        <v>0.03069978073024345</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1700088029.427661</v>
+        <v>1605706012.553388</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1296924781632985</v>
+        <v>0.1320980498596945</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05217470752327913</v>
+        <v>0.05130910355017124</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1946677782.603147</v>
+        <v>2691203046.553622</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1422133652907091</v>
+        <v>0.1607525734014257</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03498391516634394</v>
+        <v>0.03334495088965309</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4082962396.832711</v>
+        <v>3985100321.204217</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09591795197396888</v>
+        <v>0.0794364098167868</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04094996619857958</v>
+        <v>0.03287839334963361</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1954475004.370645</v>
+        <v>2185608003.787138</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1862270062311422</v>
+        <v>0.1608565796408574</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02220425630434344</v>
+        <v>0.02463462803961147</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1590058248.158388</v>
+        <v>1781308631.414239</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07833818529639028</v>
+        <v>0.06995573727369195</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02538881862031493</v>
+        <v>0.03396494089830537</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1765541752.720613</v>
+        <v>1908598069.53958</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1769898208931076</v>
+        <v>0.1803643438500618</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03828859205468389</v>
+        <v>0.04331945727456056</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3455615383.245334</v>
+        <v>5494352351.091768</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1288042471731511</v>
+        <v>0.1212388953461938</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04008841761759024</v>
+        <v>0.05450782131206475</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4665695549.452244</v>
+        <v>4561493613.969277</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1326399598453523</v>
+        <v>0.1638777938756649</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05689305062651607</v>
+        <v>0.05177258077535515</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4054831220.429109</v>
+        <v>3820911191.47536</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09153193591668846</v>
+        <v>0.09087257450962548</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02822178081138185</v>
+        <v>0.02921373035997963</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1401068749.934932</v>
+        <v>1215117970.636602</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1223553206587364</v>
+        <v>0.1559572106243308</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04319954595134556</v>
+        <v>0.04138955979667239</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3119419480.487372</v>
+        <v>3791941382.464643</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1627820982428736</v>
+        <v>0.1539701423025865</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03878761543489175</v>
+        <v>0.04866513848709214</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1469212410.592123</v>
+        <v>1122795756.750959</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1346039233136157</v>
+        <v>0.1463781569224719</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03453321741912109</v>
+        <v>0.04024216784328962</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4689023833.69418</v>
+        <v>4222068009.600942</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08444766486745982</v>
+        <v>0.09616342942284764</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0609949977536622</v>
+        <v>0.05746252361814908</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3167482916.207488</v>
+        <v>3108214122.924527</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1383484337942709</v>
+        <v>0.1323520031358482</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02380180558469472</v>
+        <v>0.02212845710427943</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>2996451286.59832</v>
+        <v>4275513640.843894</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1044449122967284</v>
+        <v>0.1384424028308731</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05261762185155484</v>
+        <v>0.04709761848185268</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4808003291.1765</v>
+        <v>3803920136.369623</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2083388462002268</v>
+        <v>0.1632977270917841</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02367673703734941</v>
+        <v>0.03165482881404999</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1780904173.301771</v>
+        <v>1578455790.877061</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1012797462457087</v>
+        <v>0.1158738653068801</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04306985297522795</v>
+        <v>0.0433770325111756</v>
       </c>
       <c r="H56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2836844152.470039</v>
+        <v>3518708814.228103</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1788931103334775</v>
+        <v>0.1117649704034478</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0230836602836809</v>
+        <v>0.01681004237870354</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1877379922.546896</v>
+        <v>1420238916.169191</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1305814336520106</v>
+        <v>0.1366446958551669</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03219568840998588</v>
+        <v>0.03749318738069697</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4119790579.20338</v>
+        <v>5223908231.797648</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1145064193624689</v>
+        <v>0.1188490806617881</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04337429735116393</v>
+        <v>0.0475365943535107</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3342107918.194183</v>
+        <v>3027296794.768562</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1936277024618433</v>
+        <v>0.1457367309836202</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02196731484457815</v>
+        <v>0.02918133983213741</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3403038424.70682</v>
+        <v>2989171266.507765</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1517978979265213</v>
+        <v>0.1227062085591765</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02819576601219946</v>
+        <v>0.02265603175717578</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1942772863.295734</v>
+        <v>1793345136.177029</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1297043699635578</v>
+        <v>0.1247457440836869</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04878302673423117</v>
+        <v>0.04952044820938391</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5580465003.577709</v>
+        <v>4966036720.810611</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09961190475295011</v>
+        <v>0.07542509719986602</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04565431835718101</v>
+        <v>0.03059072771718118</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3670032124.513918</v>
+        <v>4929259918.588474</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1218148740576447</v>
+        <v>0.1637059009883233</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02329559447567486</v>
+        <v>0.03154397267270038</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4875201245.395539</v>
+        <v>4266529409.518346</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1077447144998728</v>
+        <v>0.1401996244361135</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02178058775489427</v>
+        <v>0.0271108862139932</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3575390115.677547</v>
+        <v>5544212420.329694</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1536742441498734</v>
+        <v>0.1590201866110036</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03109934796004625</v>
+        <v>0.03420085278475724</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3305994461.602443</v>
+        <v>2762730463.42623</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08331017431555642</v>
+        <v>0.07345391792386817</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03175744210750941</v>
+        <v>0.05095670259349025</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4104301194.5269</v>
+        <v>4029156758.694259</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1460117251146738</v>
+        <v>0.1129893821239845</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04154382104843436</v>
+        <v>0.03491737486460249</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2128669150.258812</v>
+        <v>1877895393.699678</v>
       </c>
       <c r="F69" t="n">
-        <v>0.175805108355151</v>
+        <v>0.1807970791923244</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04736749489312421</v>
+        <v>0.04260721579146769</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2365631557.294931</v>
+        <v>2526533691.619985</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06877815739246644</v>
+        <v>0.06452662986054802</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0447055269966395</v>
+        <v>0.03900984538026475</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5025752498.90098</v>
+        <v>3905517577.385148</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1780376974579508</v>
+        <v>0.1810030709257765</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02195982412828976</v>
+        <v>0.03195338513002633</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1622029580.319345</v>
+        <v>1429643384.368686</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07168536964880498</v>
+        <v>0.07900777100241665</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03405023996926588</v>
+        <v>0.04074551246141964</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2316674716.220937</v>
+        <v>2737145461.622398</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07510965101178625</v>
+        <v>0.08383720707779782</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05113523154758053</v>
+        <v>0.03619878119184639</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3401049602.130258</v>
+        <v>2496619627.391393</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1656211729132151</v>
+        <v>0.12373316827491</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02819698178211838</v>
+        <v>0.03414789970263853</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2421253831.657255</v>
+        <v>2383618604.325342</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1054503603999048</v>
+        <v>0.1293134286478303</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02806403133629543</v>
+        <v>0.02939617734927476</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3256589373.447527</v>
+        <v>4387347235.341271</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1141748962013852</v>
+        <v>0.1069816147362157</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03371813125533681</v>
+        <v>0.03313101989451668</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1839669807.055204</v>
+        <v>2170584223.220478</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1668280529046213</v>
+        <v>0.1154030537780087</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02780931438265856</v>
+        <v>0.02650952662390872</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2921851716.206772</v>
+        <v>2934990869.846756</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1015295023029222</v>
+        <v>0.1257582674511493</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04446858511798717</v>
+        <v>0.04025308893540226</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1846866883.012678</v>
+        <v>1290927494.945426</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1662969790622256</v>
+        <v>0.1711103368343924</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02499403424063451</v>
+        <v>0.03272518474409629</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3654688964.222321</v>
+        <v>5598892766.981725</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09343929603935666</v>
+        <v>0.07749442175717101</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03856834107534075</v>
+        <v>0.0302603953035815</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4828155028.635654</v>
+        <v>3982366549.340569</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1102973821255709</v>
+        <v>0.1287622128649886</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02529150319060447</v>
+        <v>0.02698353895493198</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4258621733.549374</v>
+        <v>4741394172.693981</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1359325879530953</v>
+        <v>0.1939437101877319</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01932929076637011</v>
+        <v>0.02772923175413848</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2098800257.947222</v>
+        <v>2097687066.990017</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1356203531164286</v>
+        <v>0.1429734234888189</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0309715685723855</v>
+        <v>0.02854324790896355</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1873508034.678989</v>
+        <v>1564817261.693062</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09153110265702247</v>
+        <v>0.1207902276603875</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03345778756566866</v>
+        <v>0.05209935218145097</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3071083165.986291</v>
+        <v>3158540213.622998</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1324677467271856</v>
+        <v>0.165833212532125</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05385879160412873</v>
+        <v>0.03700156551785922</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1972891696.844096</v>
+        <v>2350222501.497326</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1113477801717634</v>
+        <v>0.1104455530972803</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0240173690852656</v>
+        <v>0.01918687132172166</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1479235986.692685</v>
+        <v>921225127.0170232</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1319501651608168</v>
+        <v>0.189376020792902</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04103241397335854</v>
+        <v>0.04234656965285959</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3546803634.89852</v>
+        <v>3319603931.693222</v>
       </c>
       <c r="F88" t="n">
-        <v>0.173600552292149</v>
+        <v>0.1476288172086102</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02654050714523193</v>
+        <v>0.0296026355060075</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3063050218.865086</v>
+        <v>2770475821.978789</v>
       </c>
       <c r="F89" t="n">
-        <v>0.107933772724314</v>
+        <v>0.1575126564748756</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03269423274093888</v>
+        <v>0.0352455535923776</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2149236495.72465</v>
+        <v>1646976290.777739</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1240574500313206</v>
+        <v>0.1069108511479367</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03818234775593192</v>
+        <v>0.03469585344525402</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1491445554.841897</v>
+        <v>2065751213.102002</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1471133159508325</v>
+        <v>0.1360861961469961</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0419062908032564</v>
+        <v>0.03860130629837981</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2118051319.353075</v>
+        <v>2649835080.026072</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06971366175145786</v>
+        <v>0.1006449823552821</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04620114938409431</v>
+        <v>0.03696296228914487</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3877461872.311528</v>
+        <v>4947300068.261939</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1027203731814393</v>
+        <v>0.09156606694589427</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04957740633053304</v>
+        <v>0.03979841474233885</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2108799303.314115</v>
+        <v>2264868252.85408</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1036656526241038</v>
+        <v>0.1319561694259165</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0398099409579388</v>
+        <v>0.03082353342225942</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2931399449.91117</v>
+        <v>3278068060.008821</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09464103749718192</v>
+        <v>0.1371939773560406</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03373169744961434</v>
+        <v>0.03254675968330714</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2361453143.512198</v>
+        <v>2242530898.593857</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1014788726979822</v>
+        <v>0.1355027977601881</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03088205501745309</v>
+        <v>0.03682974864081213</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4947151800.84696</v>
+        <v>3767531639.027809</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1115139319178341</v>
+        <v>0.1484008457305181</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02728443048140068</v>
+        <v>0.02639118598498765</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3087782048.098192</v>
+        <v>3325301790.91859</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1197414490099169</v>
+        <v>0.1269665479717627</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01992670804781594</v>
+        <v>0.02702645209771986</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3364223785.908591</v>
+        <v>2606963203.154945</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09738998857538592</v>
+        <v>0.1220502735043772</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02578299145104036</v>
+        <v>0.0260036273719988</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3688300806.6272</v>
+        <v>3983652612.700321</v>
       </c>
       <c r="F100" t="n">
-        <v>0.166164668924377</v>
+        <v>0.1315739674147771</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02474272864026278</v>
+        <v>0.02607760780149746</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3014098154.890308</v>
+        <v>2663035426.047716</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2180436194980933</v>
+        <v>0.1400883849758149</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04049056290714162</v>
+        <v>0.04393486347758167</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_177.xlsx
+++ b/output/fit_clients/fit_round_177.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2119804928.953453</v>
+        <v>1919244137.451237</v>
       </c>
       <c r="F2" t="n">
-        <v>0.100677776043893</v>
+        <v>0.1063390833407562</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03852066591109653</v>
+        <v>0.03169536565360109</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1612177319.145276</v>
+        <v>2164379726.571655</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1646686528761019</v>
+        <v>0.1742773489695033</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03275999060106453</v>
+        <v>0.03580149719371567</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4562103689.914237</v>
+        <v>4510141940.252262</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1662579328388255</v>
+        <v>0.1035131647446429</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03749475173304048</v>
+        <v>0.03787096948006432</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>97</v>
+      </c>
+      <c r="J4" t="n">
+        <v>177</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3914964318.288614</v>
+        <v>2849792795.167151</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09424535323756324</v>
+        <v>0.0964390544388205</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03527410814191199</v>
+        <v>0.03591078529985663</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>175</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1854631171.75829</v>
+        <v>2058561850.309425</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1122587374121787</v>
+        <v>0.1248053242179686</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05445715160099635</v>
+        <v>0.05687527187570351</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2925154714.686162</v>
+        <v>2721013727.463989</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08000561249567806</v>
+        <v>0.08461994468565048</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04835807582752564</v>
+        <v>0.04088033119971349</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2588751367.403534</v>
+        <v>2413137474.574391</v>
       </c>
       <c r="F8" t="n">
-        <v>0.15061881707915</v>
+        <v>0.1735583190219796</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03088309275019482</v>
+        <v>0.02413990546985047</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+      <c r="J8" t="n">
+        <v>173</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1725079368.785602</v>
+        <v>1724071537.026423</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1366232317987707</v>
+        <v>0.1657868725139684</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02671765944251834</v>
+        <v>0.02619343100726138</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5922765933.633795</v>
+        <v>4681271566.229718</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1995448276598266</v>
+        <v>0.1899843544555101</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04981740158582442</v>
+        <v>0.04505417882388224</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>162</v>
+      </c>
+      <c r="J10" t="n">
+        <v>177</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +810,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3716925084.501027</v>
+        <v>4077548466.231624</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1184802675553935</v>
+        <v>0.1438982499370761</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04764889252068779</v>
+        <v>0.03804560052208571</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>74</v>
+      </c>
+      <c r="J11" t="n">
+        <v>176</v>
+      </c>
+      <c r="K11" t="n">
+        <v>124.9501641055765</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3302552946.746809</v>
+        <v>2044731064.784413</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1854674151931508</v>
+        <v>0.1804344778621072</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04312932478696567</v>
+        <v>0.03609217472398916</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4399540809.492927</v>
+        <v>4970709288.724858</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08080038218435222</v>
+        <v>0.1012780144909441</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03040062047188751</v>
+        <v>0.01925201951113608</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>87</v>
+      </c>
+      <c r="J13" t="n">
+        <v>177</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2982158134.189905</v>
+        <v>3795299054.213792</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1852462788995016</v>
+        <v>0.1251264699049482</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03013027020404981</v>
+        <v>0.03278857104946577</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>33</v>
+      </c>
+      <c r="J14" t="n">
+        <v>173</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1381392097.070652</v>
+        <v>1571205700.63389</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09287821773510312</v>
+        <v>0.1003644352940557</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03467578614786628</v>
+        <v>0.0405600006180367</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +987,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2113386293.265285</v>
+        <v>1904826165.439348</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08678183468473105</v>
+        <v>0.1033977487877453</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04125768446641596</v>
+        <v>0.0388908707915834</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3291272641.272324</v>
+        <v>3648925718.417419</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1744295721399097</v>
+        <v>0.1548821072720183</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04965053950175764</v>
+        <v>0.03881312045948059</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>85</v>
+      </c>
+      <c r="J17" t="n">
+        <v>176</v>
+      </c>
+      <c r="K17" t="n">
+        <v>84.76862576157781</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3595015835.272881</v>
+        <v>2883260373.403278</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1727721184152712</v>
+        <v>0.1435794885678222</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0255023623417047</v>
+        <v>0.03193615409695966</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>45</v>
+      </c>
+      <c r="J18" t="n">
+        <v>174</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>884839691.7907767</v>
+        <v>984986868.8248221</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1698124977965518</v>
+        <v>0.1639938937666399</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02427573405500106</v>
+        <v>0.02105222289757982</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1911896662.585498</v>
+        <v>2297495842.100957</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1579530410455716</v>
+        <v>0.1316840196264748</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02054628606723562</v>
+        <v>0.01957004886736539</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1945867088.836256</v>
+        <v>2078143345.345423</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09468999208024637</v>
+        <v>0.09066664195359478</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04028799834271991</v>
+        <v>0.0336638300503025</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2972249085.793711</v>
+        <v>3898711748.134004</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1032517733415163</v>
+        <v>0.0933713651181516</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03747124076333828</v>
+        <v>0.04070532600708703</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>177</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1067007809.689005</v>
+        <v>1127246635.753094</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1361108094530183</v>
+        <v>0.178566513944971</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05316736558554287</v>
+        <v>0.05460040212402514</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3269633051.654851</v>
+        <v>4050130904.248561</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09848462004311564</v>
+        <v>0.1227309686255802</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02320723410060928</v>
+        <v>0.03213502856980492</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>53</v>
+      </c>
+      <c r="J24" t="n">
+        <v>177</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>907641734.9095945</v>
+        <v>1457921854.269664</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08265288609459438</v>
+        <v>0.0972869735967917</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02337946974897866</v>
+        <v>0.02839813623279231</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1432513053.297156</v>
+        <v>1189632165.342953</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08729552420568987</v>
+        <v>0.119109970598797</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03399830010954585</v>
+        <v>0.0310620001651376</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1380,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4036800940.849319</v>
+        <v>3651611120.641616</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1570898990305795</v>
+        <v>0.1032644486189759</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01876911251193602</v>
+        <v>0.01710856318758567</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>71</v>
+      </c>
+      <c r="J27" t="n">
+        <v>176</v>
+      </c>
+      <c r="K27" t="n">
+        <v>79.57427473000108</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1411,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2533763095.294456</v>
+        <v>3373862434.868723</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09930468581871213</v>
+        <v>0.09914579220125284</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04839395442030909</v>
+        <v>0.04046038141704777</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>34</v>
+      </c>
+      <c r="J28" t="n">
+        <v>175</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1446,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4940360097.503073</v>
+        <v>4511740856.535875</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1423433134655472</v>
+        <v>0.1399750562706622</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04184143222811122</v>
+        <v>0.02877768615232404</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>166</v>
+      </c>
+      <c r="J29" t="n">
+        <v>177</v>
+      </c>
+      <c r="K29" t="n">
+        <v>147.0771192524027</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1483,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1756173580.543149</v>
+        <v>1502851556.711346</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1044036193163559</v>
+        <v>0.1394987405150615</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0323913282963024</v>
+        <v>0.03913401988984599</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1518,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1151432088.220897</v>
+        <v>988082189.2431024</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09656690301956986</v>
+        <v>0.0938004435610658</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04611068977465454</v>
+        <v>0.04740248419274815</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1553,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1603415247.554028</v>
+        <v>1235877821.329175</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1138224188652197</v>
+        <v>0.1116914739500245</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02348783569674962</v>
+        <v>0.03201970708503915</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1588,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2606218124.661713</v>
+        <v>2523557041.446323</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1527568162842878</v>
+        <v>0.1511395828728029</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05583558197430014</v>
+        <v>0.05718070019076452</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1623,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1169634348.650796</v>
+        <v>1442049527.413201</v>
       </c>
       <c r="F34" t="n">
-        <v>0.104024845350799</v>
+        <v>0.08940382797165269</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02551137669526637</v>
+        <v>0.0194553430958008</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1658,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>962774349.4888545</v>
+        <v>1347207125.907613</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08199056242337008</v>
+        <v>0.07775798555826026</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03818870574724628</v>
+        <v>0.03970235748772761</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1699,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2247150280.255175</v>
+        <v>2597137097.551109</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1353936722367006</v>
+        <v>0.1094764352258044</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02282884274444728</v>
+        <v>0.02645343059913158</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1734,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2296577200.519551</v>
+        <v>2705994047.702916</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09854413620362415</v>
+        <v>0.07605316297334518</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02856682290624933</v>
+        <v>0.02730360391827523</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1769,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1605757475.211186</v>
+        <v>2177225324.324773</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0794632196417786</v>
+        <v>0.09361311162834245</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03913183848097681</v>
+        <v>0.03888610513628046</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1798,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2128801235.073603</v>
+        <v>1418722095.976832</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1894983985803974</v>
+        <v>0.1730930817662667</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03069978073024345</v>
+        <v>0.03255389337561482</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1833,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1605706012.553388</v>
+        <v>1362682645.845826</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1320980498596945</v>
+        <v>0.139191211538567</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05130910355017124</v>
+        <v>0.04466865507572444</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1874,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2691203046.553622</v>
+        <v>1812238162.571741</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1607525734014257</v>
+        <v>0.1293081475886401</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03334495088965309</v>
+        <v>0.0351383440659609</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1903,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3985100321.204217</v>
+        <v>3991580495.099673</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0794364098167868</v>
+        <v>0.0787700613211761</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03287839334963361</v>
+        <v>0.03674763487095938</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>66</v>
+      </c>
+      <c r="J42" t="n">
+        <v>177</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1944,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2185608003.787138</v>
+        <v>2111849703.019914</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1608565796408574</v>
+        <v>0.1974046824480749</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02463462803961147</v>
+        <v>0.02158059339936393</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1979,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1781308631.414239</v>
+        <v>2094385185.885747</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06995573727369195</v>
+        <v>0.1005731220251243</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03396494089830537</v>
+        <v>0.03692151187314521</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2014,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1908598069.53958</v>
+        <v>2526458766.228077</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1803643438500618</v>
+        <v>0.1607303772443188</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04331945727456056</v>
+        <v>0.04464737836779776</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2043,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5494352351.091768</v>
+        <v>4722501139.72802</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1212388953461938</v>
+        <v>0.1592888639085218</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05450782131206475</v>
+        <v>0.03752983008208728</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>100</v>
+      </c>
+      <c r="J46" t="n">
+        <v>177</v>
+      </c>
+      <c r="K46" t="n">
+        <v>129.6082299507431</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2086,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4561493613.969277</v>
+        <v>4418312400.616911</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1638777938756649</v>
+        <v>0.188066565127328</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05177258077535515</v>
+        <v>0.05329631306149159</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>79</v>
+      </c>
+      <c r="J47" t="n">
+        <v>176</v>
+      </c>
+      <c r="K47" t="n">
+        <v>105.6672307570192</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +2123,25 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3820911191.47536</v>
+        <v>4394551258.943324</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09087257450962548</v>
+        <v>0.07574440151570452</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02921373035997963</v>
+        <v>0.02718333637454983</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>81</v>
+      </c>
+      <c r="J48" t="n">
+        <v>177</v>
+      </c>
+      <c r="K48" t="n">
+        <v>132.0095963402029</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1215117970.636602</v>
+        <v>1544403041.113596</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1559572106243308</v>
+        <v>0.1680300842117962</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04138955979667239</v>
+        <v>0.03829796987673851</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3791941382.464643</v>
+        <v>2659323550.821594</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1539701423025865</v>
+        <v>0.1431151733097721</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04866513848709214</v>
+        <v>0.04823524171340136</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>57</v>
+      </c>
+      <c r="J50" t="n">
+        <v>175</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1122795756.750959</v>
+        <v>1152096452.862954</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1463781569224719</v>
+        <v>0.1408308474527635</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04024216784328962</v>
+        <v>0.04160132677673957</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4222068009.600942</v>
+        <v>4613583278.808144</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09616342942284764</v>
+        <v>0.1376679958750436</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05746252361814908</v>
+        <v>0.03998915091273989</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>125</v>
+      </c>
+      <c r="J52" t="n">
+        <v>177</v>
+      </c>
+      <c r="K52" t="n">
+        <v>128.2267213148631</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3108214122.924527</v>
+        <v>2365326817.215416</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1323520031358482</v>
+        <v>0.1525234603174301</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02212845710427943</v>
+        <v>0.02692894613010231</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>23</v>
+      </c>
+      <c r="J53" t="n">
+        <v>170</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4275513640.843894</v>
+        <v>3568496845.738803</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1384424028308731</v>
+        <v>0.1394988547039746</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04709761848185268</v>
+        <v>0.04838885500545899</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>89</v>
+      </c>
+      <c r="J54" t="n">
+        <v>176</v>
+      </c>
+      <c r="K54" t="n">
+        <v>92.87951988472199</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3803920136.369623</v>
+        <v>4580645176.288251</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1632977270917841</v>
+        <v>0.1784638954260779</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03165482881404999</v>
+        <v>0.02854256909802352</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>80</v>
+      </c>
+      <c r="J55" t="n">
+        <v>176</v>
+      </c>
+      <c r="K55" t="n">
+        <v>122.9170531386388</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2411,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1578455790.877061</v>
+        <v>1510399523.466326</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1158738653068801</v>
+        <v>0.1446189413256408</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0433770325111756</v>
+        <v>0.04778128420639065</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2446,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3518708814.228103</v>
+        <v>4109803768.04582</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1117649704034478</v>
+        <v>0.1800247278343393</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01681004237870354</v>
+        <v>0.02767802756489592</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>71</v>
+      </c>
+      <c r="J57" t="n">
+        <v>177</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1420238916.169191</v>
+        <v>1864059570.538103</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1366446958551669</v>
+        <v>0.1436862907139663</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03749318738069697</v>
+        <v>0.03035696533622752</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5223908231.797648</v>
+        <v>4811810549.873868</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1188490806617881</v>
+        <v>0.106429187096733</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0475365943535107</v>
+        <v>0.03400717957048081</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>85</v>
+      </c>
+      <c r="J59" t="n">
+        <v>176</v>
+      </c>
+      <c r="K59" t="n">
+        <v>118.6848370050613</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3027296794.768562</v>
+        <v>2605698653.991568</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1457367309836202</v>
+        <v>0.1618221214184344</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02918133983213741</v>
+        <v>0.02980322542081253</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>26</v>
+      </c>
+      <c r="J60" t="n">
+        <v>170</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2989171266.507765</v>
+        <v>3217636952.86211</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1227062085591765</v>
+        <v>0.1098038994570198</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02265603175717578</v>
+        <v>0.03079875354361301</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1793345136.177029</v>
+        <v>1599235829.923368</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1247457440836869</v>
+        <v>0.1840443009370291</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04952044820938391</v>
+        <v>0.0421025148159908</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4966036720.810611</v>
+        <v>5140045514.801061</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07542509719986602</v>
+        <v>0.06528960087281788</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03059072771718118</v>
+        <v>0.03453913683324473</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>87</v>
+      </c>
+      <c r="J63" t="n">
+        <v>176</v>
+      </c>
+      <c r="K63" t="n">
+        <v>119.1500635538755</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4929259918.588474</v>
+        <v>5452175146.07867</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1637059009883233</v>
+        <v>0.1543066683158006</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03154397267270038</v>
+        <v>0.02212657098994375</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>87</v>
+      </c>
+      <c r="J64" t="n">
+        <v>177</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4266529409.518346</v>
+        <v>4565831915.904947</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1401996244361135</v>
+        <v>0.1063108841503355</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0271108862139932</v>
+        <v>0.02721793798112416</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>144</v>
+      </c>
+      <c r="J65" t="n">
+        <v>177</v>
+      </c>
+      <c r="K65" t="n">
+        <v>131.0465369945062</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2761,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5544212420.329694</v>
+        <v>4268780502.342637</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1590201866110036</v>
+        <v>0.1145204317580815</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03420085278475724</v>
+        <v>0.0309757343727087</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>87</v>
+      </c>
+      <c r="J66" t="n">
+        <v>176</v>
+      </c>
+      <c r="K66" t="n">
+        <v>117.421896744106</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2762730463.42623</v>
+        <v>2330357820.774589</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07345391792386817</v>
+        <v>0.09265552726512066</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05095670259349025</v>
+        <v>0.03408146809078944</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4029156758.694259</v>
+        <v>5130281222.21703</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1129893821239845</v>
+        <v>0.111521259274491</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03491737486460249</v>
+        <v>0.04169834538493066</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>89</v>
+      </c>
+      <c r="J68" t="n">
+        <v>176</v>
+      </c>
+      <c r="K68" t="n">
+        <v>122.5171459607813</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1877895393.699678</v>
+        <v>2261316989.510818</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1807970791923244</v>
+        <v>0.1385309636008017</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04260721579146769</v>
+        <v>0.05866973591566437</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2526533691.619985</v>
+        <v>3719460592.126748</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06452662986054802</v>
+        <v>0.07275753700381431</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03900984538026475</v>
+        <v>0.03721636136093821</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3905517577.385148</v>
+        <v>3805552012.349731</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1810030709257765</v>
+        <v>0.1741703171259187</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03195338513002633</v>
+        <v>0.02813533279519592</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>139</v>
+      </c>
+      <c r="J71" t="n">
+        <v>177</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1429643384.368686</v>
+        <v>1731400291.342962</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07900777100241665</v>
+        <v>0.1059692178375642</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04074551246141964</v>
+        <v>0.03282062803529438</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2737145461.622398</v>
+        <v>3587225647.819632</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08383720707779782</v>
+        <v>0.09180265516817965</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03619878119184639</v>
+        <v>0.0333482096278194</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2496619627.391393</v>
+        <v>2676866070.498343</v>
       </c>
       <c r="F74" t="n">
-        <v>0.12373316827491</v>
+        <v>0.1124198380417373</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03414789970263853</v>
+        <v>0.03113134054695806</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>52</v>
+      </c>
+      <c r="J74" t="n">
+        <v>175</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2383618604.325342</v>
+        <v>2144819619.275964</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1293134286478303</v>
+        <v>0.1266052108266207</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02939617734927476</v>
+        <v>0.0281747742841019</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4387347235.341271</v>
+        <v>4139328227.792764</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1069816147362157</v>
+        <v>0.08600574097025457</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03313101989451668</v>
+        <v>0.02634097827832002</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>80</v>
+      </c>
+      <c r="J76" t="n">
+        <v>177</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3156,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2170584223.220478</v>
+        <v>1390837584.757397</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1154030537780087</v>
+        <v>0.1362540709912153</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02650952662390872</v>
+        <v>0.02157114664506491</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2934990869.846756</v>
+        <v>3331451430.13731</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1257582674511493</v>
+        <v>0.1179548307550235</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04025308893540226</v>
+        <v>0.04460989077107085</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>90</v>
+      </c>
+      <c r="J78" t="n">
+        <v>176</v>
+      </c>
+      <c r="K78" t="n">
+        <v>80.11516629539798</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1290927494.945426</v>
+        <v>1880770433.059056</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1711103368343924</v>
+        <v>0.172528745555216</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03272518474409629</v>
+        <v>0.0259724623404806</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5598892766.981725</v>
+        <v>4412354590.941447</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07749442175717101</v>
+        <v>0.08265622751551099</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0302603953035815</v>
+        <v>0.02521439799811798</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>86</v>
+      </c>
+      <c r="J80" t="n">
+        <v>177</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3982366549.340569</v>
+        <v>4804159129.22889</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1287622128649886</v>
+        <v>0.1204506914398537</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02698353895493198</v>
+        <v>0.02755964825266792</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>81</v>
+      </c>
+      <c r="J81" t="n">
+        <v>177</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4741394172.693981</v>
+        <v>3474301420.440835</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1939437101877319</v>
+        <v>0.1908587266175148</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02772923175413848</v>
+        <v>0.02532875470727602</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>132</v>
+      </c>
+      <c r="J82" t="n">
+        <v>176</v>
+      </c>
+      <c r="K82" t="n">
+        <v>91.02156260844711</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2097687066.990017</v>
+        <v>2492811417.140573</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1429734234888189</v>
+        <v>0.1307152302594208</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02854324790896355</v>
+        <v>0.03410406424812921</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1564817261.693062</v>
+        <v>2482737683.602107</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1207902276603875</v>
+        <v>0.1135548872149098</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05209935218145097</v>
+        <v>0.03483468954113451</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3158540213.622998</v>
+        <v>2662266817.989689</v>
       </c>
       <c r="F85" t="n">
-        <v>0.165833212532125</v>
+        <v>0.170196023878319</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03700156551785922</v>
+        <v>0.04573265080884417</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>27</v>
+      </c>
+      <c r="J85" t="n">
+        <v>170</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2350222501.497326</v>
+        <v>2502944218.120802</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1104455530972803</v>
+        <v>0.1071561215487592</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01918687132172166</v>
+        <v>0.01749548623884353</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>921225127.0170232</v>
+        <v>1196592935.091874</v>
       </c>
       <c r="F87" t="n">
-        <v>0.189376020792902</v>
+        <v>0.1146890898792054</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04234656965285959</v>
+        <v>0.0411880771957603</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3545,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3319603931.693222</v>
+        <v>2403077400.799157</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1476288172086102</v>
+        <v>0.1330648642481584</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0296026355060075</v>
+        <v>0.02842979734809531</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>24</v>
+      </c>
+      <c r="J88" t="n">
+        <v>176</v>
+      </c>
+      <c r="K88" t="n">
+        <v>43.43810668895485</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2770475821.978789</v>
+        <v>3008961032.10203</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1575126564748756</v>
+        <v>0.1183107698342384</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0352455535923776</v>
+        <v>0.02672557831299164</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1646976290.777739</v>
+        <v>1763926466.01171</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1069108511479367</v>
+        <v>0.1373397428418047</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03469585344525402</v>
+        <v>0.0508666017348684</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2065751213.102002</v>
+        <v>1865911884.789466</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1360861961469961</v>
+        <v>0.133395459912355</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03860130629837981</v>
+        <v>0.05379755933825266</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2649835080.026072</v>
+        <v>2867595314.621306</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1006449823552821</v>
+        <v>0.06929541198729329</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03696296228914487</v>
+        <v>0.03466675142775244</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4947300068.261939</v>
+        <v>4809103988.763565</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09156606694589427</v>
+        <v>0.1030531947791234</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03979841474233885</v>
+        <v>0.05140620251192783</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>79</v>
+      </c>
+      <c r="J93" t="n">
+        <v>177</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2264868252.85408</v>
+        <v>1773988350.067716</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1319561694259165</v>
+        <v>0.1613013200032602</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03082353342225942</v>
+        <v>0.04098070692240256</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3278068060.008821</v>
+        <v>2963872286.512138</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1371939773560406</v>
+        <v>0.1238524810973505</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03254675968330714</v>
+        <v>0.038604023966784</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3827,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2242530898.593857</v>
+        <v>2143728178.096366</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1355027977601881</v>
+        <v>0.105857950287618</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03682974864081213</v>
+        <v>0.04453524923590231</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3862,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3767531639.027809</v>
+        <v>4703563926.86325</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1484008457305181</v>
+        <v>0.1420056713149996</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02639118598498765</v>
+        <v>0.01976301377050646</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>85</v>
+      </c>
+      <c r="J97" t="n">
+        <v>177</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3325301790.91859</v>
+        <v>3214956829.128414</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1269665479717627</v>
+        <v>0.09367138266206437</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02702645209771986</v>
+        <v>0.03163214796891705</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>43</v>
+      </c>
+      <c r="J98" t="n">
+        <v>176</v>
+      </c>
+      <c r="K98" t="n">
+        <v>64.50262520584202</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2606963203.154945</v>
+        <v>2910623271.155869</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1220502735043772</v>
+        <v>0.1458580397699613</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0260036273719988</v>
+        <v>0.03065086178358002</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3969,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3983652612.700321</v>
+        <v>4195566085.350434</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1315739674147771</v>
+        <v>0.151448371428075</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02607760780149746</v>
+        <v>0.01962655539232691</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>73</v>
+      </c>
+      <c r="J100" t="n">
+        <v>177</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,16 +4004,25 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2663035426.047716</v>
+        <v>3461093446.495807</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1400883849758149</v>
+        <v>0.1649388596935815</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04393486347758167</v>
+        <v>0.04756825388365132</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>17</v>
+      </c>
+      <c r="J101" t="n">
+        <v>176</v>
+      </c>
+      <c r="K101" t="n">
+        <v>84.13556626375052</v>
       </c>
     </row>
   </sheetData>
